--- a/RTM_Report.xlsx
+++ b/RTM_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BAB64B05-2C03-EF43-9DE6-374E7AB20ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5501AF-1F10-0B47-A54A-B5BC7946C2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15900" xr2:uid="{5D113B42-E633-4443-B5C2-9434F5A6B454}"/>
+    <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15900" xr2:uid="{5D113B42-E633-4443-B5C2-9434F5A6B454}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM_Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -155,9 +155,6 @@
     <t>30-day money-back guarantee text is visible in the new window.</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -320,12 +317,36 @@
   <si>
     <t>HTML and XML files.</t>
   </si>
+  <si>
+    <t>Pass: Mexico was selected successfully.</t>
+  </si>
+  <si>
+    <t>Pass: Dropdown changes correctly to options.</t>
+  </si>
+  <si>
+    <t>Failed: Timeout waiting for heading element to appear.</t>
+  </si>
+  <si>
+    <t>Pass: Alert and confirm messages match expected strings</t>
+  </si>
+  <si>
+    <t>Pass: Four courses priced at $25 were printed successfully.</t>
+  </si>
+  <si>
+    <t>Pass: Engineers "Alex" and "Jack" were printed successfully.</t>
+  </si>
+  <si>
+    <t>Pass: Highlighted text retrieved successfully: "His mentorship program is most after in the software testing community with long waiting period."</t>
+  </si>
+  <si>
+    <t>Pass: HTML and XML reports generated successfully in the "Reports" folder.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -820,7 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -831,7 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1215,15 +1235,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="41.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="118" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1">
+    <row r="2" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -1311,7 +1336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1">
+    <row r="3" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -1355,7 +1380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1">
+    <row r="4" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1387,30 +1412,30 @@
         <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>30</v>
@@ -1422,39 +1447,39 @@
         <v>38</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="M5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1463,42 +1488,42 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1510,39 +1535,39 @@
         <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="221" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -1554,42 +1579,42 @@
         <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -1598,69 +1623,69 @@
         <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/RTM_Report.xlsx
+++ b/RTM_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5501AF-1F10-0B47-A54A-B5BC7946C2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157AED5-AEB1-8E48-A847-39E268D82AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15900" xr2:uid="{5D113B42-E633-4443-B5C2-9434F5A6B454}"/>
   </bookViews>
@@ -318,28 +318,28 @@
     <t>HTML and XML files.</t>
   </si>
   <si>
-    <t>Pass: Mexico was selected successfully.</t>
-  </si>
-  <si>
-    <t>Pass: Dropdown changes correctly to options.</t>
-  </si>
-  <si>
-    <t>Failed: Timeout waiting for heading element to appear.</t>
-  </si>
-  <si>
-    <t>Pass: Alert and confirm messages match expected strings</t>
-  </si>
-  <si>
-    <t>Pass: Four courses priced at $25 were printed successfully.</t>
-  </si>
-  <si>
-    <t>Pass: Engineers "Alex" and "Jack" were printed successfully.</t>
-  </si>
-  <si>
-    <t>Pass: Highlighted text retrieved successfully: "His mentorship program is most after in the software testing community with long waiting period."</t>
-  </si>
-  <si>
-    <t>Pass: HTML and XML reports generated successfully in the "Reports" folder.</t>
+    <t>Mexico was selected successfully.</t>
+  </si>
+  <si>
+    <t>Dropdown changes correctly to options.</t>
+  </si>
+  <si>
+    <t>Timeout waiting for heading element to appear.</t>
+  </si>
+  <si>
+    <t>Alert and confirm messages match expected strings</t>
+  </si>
+  <si>
+    <t>Four courses priced at $25 were printed successfully.</t>
+  </si>
+  <si>
+    <t>Engineers "Alex" and "Jack" were printed successfully.</t>
+  </si>
+  <si>
+    <t>Highlighted text retrieved successfully: "His mentorship program is most after in the software testing community with long waiting period."</t>
+  </si>
+  <si>
+    <t>HTML and XML reports generated successfully in the "Reports" folder.</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE99E0CB-CF23-634A-AE86-C62C28DCDF9B}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
